--- a/testcases/TC1.xlsx
+++ b/testcases/TC1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\QA\cypress\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC85DE0F-400A-42EC-B95F-02738ACAB0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B5FB4C-00B8-4DA4-B2B3-F280B70237D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15705" xr2:uid="{3AF54769-AA74-4DD3-B72B-8C20A02F5D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -113,6 +113,20 @@
   </si>
   <si>
     <t>You should logout and see the login page</t>
+  </si>
+  <si>
+    <t>TC 5</t>
+  </si>
+  <si>
+    <t>Dropdown menu items check</t>
+  </si>
+  <si>
+    <t>Preconditions: You are logged in and see your Dashboard
+1. Visit: https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
+2. Click on dropdown menu on the right top corner that shows the picture and name</t>
+  </si>
+  <si>
+    <t>The menu should contain 4 items: About, Support, Change Password and Logout</t>
   </si>
 </sst>
 </file>
@@ -148,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,10 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10885270-05B4-4EA3-8614-C73973396E06}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +584,7 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
@@ -589,13 +607,36 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
